--- a/data/Тест по теме Взаимоотношения организмов (Ответы Биологи 2025).xlsx
+++ b/data/Тест по теме Взаимоотношения организмов (Ответы Биологи 2025).xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9264"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Ответы на форму (1)" sheetId="1" r:id="rId4"/>
+    <sheet name="Ответы на форму (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="275">
   <si>
     <t>Отметка времени</t>
   </si>
@@ -821,39 +837,416 @@
   </si>
   <si>
     <t>st131951</t>
+  </si>
+  <si>
+    <t>st132182</t>
+  </si>
+  <si>
+    <t>st128980</t>
+  </si>
+  <si>
+    <t>st132421</t>
+  </si>
+  <si>
+    <t>st129519</t>
+  </si>
+  <si>
+    <t>st132303</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0&quot; / 6&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="181" formatCode="0&quot; / 6&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="13">
-    <border/>
+  <borders count="25">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -867,6 +1260,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -881,6 +1275,67 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -895,34 +1350,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -937,34 +1365,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -979,6 +1380,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -993,6 +1395,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1007,6 +1410,37 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1021,136 +1455,574 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
     <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
     </dxf>
     <dxf>
-      <font/>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Ответы на форму (1)-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Ответы на форму (1)-style" pivot="0" count="3" xr9:uid="{1D4E346E-7CB3-43FB-BC9D-2241506B0E98}">
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I126" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:I131">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I131" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="9">
-    <tableColumn name="Отметка времени" id="1"/>
-    <tableColumn name="Баллы" id="2"/>
-    <tableColumn name="Найдите себя в списке" id="3"/>
-    <tableColumn name="Какой тип отношений наблюдается между устрицами и планктонными личинками полихет?" id="4"/>
-    <tableColumn name="Найдите животных, для которых характерен межвидовой гнездовой паразитизм" id="5"/>
-    <tableColumn name="Если для животного характерна групповая охота, что можно сказать относительно этого вида?" id="6"/>
-    <tableColumn name="Найдите среди приведенных ниже животных тех, которые склонны к клептопаразитизму" id="7"/>
-    <tableColumn name="Выделение во внешнюю среду токсинов, препятствующих росту численности конкурентов, является проявлением" id="8"/>
-    <tableColumn name="Поедание потомством тканей материнского организма является примером " id="9"/>
+    <tableColumn id="1" name="Отметка времени" dataDxfId="0"/>
+    <tableColumn id="2" name="Баллы" dataDxfId="1"/>
+    <tableColumn id="3" name="Найдите себя в списке" dataDxfId="2"/>
+    <tableColumn id="4" name="Какой тип отношений наблюдается между устрицами и планктонными личинками полихет?" dataDxfId="3"/>
+    <tableColumn id="5" name="Найдите животных, для которых характерен межвидовой гнездовой паразитизм" dataDxfId="4"/>
+    <tableColumn id="6" name="Если для животного характерна групповая охота, что можно сказать относительно этого вида?" dataDxfId="5"/>
+    <tableColumn id="7" name="Найдите среди приведенных ниже животных тех, которые склонны к клептопаразитизму" dataDxfId="6"/>
+    <tableColumn id="8" name="Выделение во внешнюю среду токсинов, препятствующих росту численности конкурентов, является проявлением" dataDxfId="7"/>
+    <tableColumn id="9" name="Поедание потомством тканей материнского организма является примером " dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="Ответы на форму (1)-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Ответы на форму (1)-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1340,30 +2212,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="22.88"/>
-    <col customWidth="1" min="4" max="9" width="37.63"/>
-    <col customWidth="1" min="10" max="15" width="18.88"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="22.8796296296296" customWidth="1"/>
+    <col min="4" max="9" width="37.6296296296296" customWidth="1"/>
+    <col min="10" max="15" width="18.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,3612 +2263,3612 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>45913.71987541667</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="3">
+        <v>45913.7198754167</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="8">
-        <v>45913.97422204861</v>
-      </c>
-      <c r="B3" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="6">
+        <v>45913.9742220486</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>45914.012819826385</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="3">
+        <v>45914.0128198264</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8">
-        <v>45914.55606150463</v>
-      </c>
-      <c r="B5" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="6">
+        <v>45914.5560615046</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>45914.79681546296</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="A6" s="3">
+        <v>45914.796815463</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8">
-        <v>45914.812270995375</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="6">
+        <v>45914.8122709954</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>45914.81896118056</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="3">
+        <v>45914.8189611806</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8">
-        <v>45914.94516230324</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="10" t="s">
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="6">
+        <v>45914.9451623032</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>45914.945163067125</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="3">
+        <v>45914.9451630671</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8">
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="6">
         <v>45915.4953740162</v>
       </c>
-      <c r="B11" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>45915.55084822916</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="3">
+        <v>45915.5508482292</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8">
-        <v>45915.551031689814</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C13" s="10" t="s">
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="6">
+        <v>45915.5510316898</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>45915.55118984954</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="3">
+        <v>45915.5511898495</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8">
-        <v>45915.551206122684</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="10" t="s">
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="6">
+        <v>45915.5512061227</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>45915.89162456019</v>
-      </c>
-      <c r="B16" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C16" s="6" t="s">
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="3">
+        <v>45915.8916245602</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="H16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8">
-        <v>45916.58718731481</v>
-      </c>
-      <c r="B17" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C17" s="10" t="s">
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="6">
+        <v>45916.5871873148</v>
+      </c>
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>45916.59494472222</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="3">
+        <v>45916.5949447222</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8">
-        <v>45916.77525924769</v>
-      </c>
-      <c r="B19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="10" t="s">
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="6">
+        <v>45916.7752592477</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4">
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="3">
         <v>45916.88478125</v>
       </c>
-      <c r="B20" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8">
-        <v>45916.937091886575</v>
-      </c>
-      <c r="B21" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C21" s="10" t="s">
+    <row r="21" customHeight="1" spans="1:9">
+      <c r="A21" s="6">
+        <v>45916.9370918866</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4">
-        <v>45917.014562129625</v>
-      </c>
-      <c r="B22" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C22" s="6" t="s">
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" s="3">
+        <v>45917.0145621296</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8">
-        <v>45917.01627232639</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C23" s="10" t="s">
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="6">
+        <v>45917.0162723264</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>45917.41497065972</v>
-      </c>
-      <c r="B24" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C24" s="6" t="s">
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="3">
+        <v>45917.4149706597</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="H24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8">
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="6">
         <v>45917.4877417824</v>
       </c>
-      <c r="B25" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <v>45917.48775645833</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C26" s="6" t="s">
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="3">
+        <v>45917.4877564583</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="H26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8">
-        <v>45917.48813415509</v>
-      </c>
-      <c r="B27" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C27" s="10" t="s">
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" s="6">
+        <v>45917.4881341551</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4">
-        <v>45917.492524270834</v>
-      </c>
-      <c r="B28" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C28" s="6" t="s">
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" s="3">
+        <v>45917.4925242708</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="H28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8">
-        <v>45917.61313295139</v>
-      </c>
-      <c r="B29" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C29" s="10" t="s">
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" s="6">
+        <v>45917.6131329514</v>
+      </c>
+      <c r="B29" s="7">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="4">
-        <v>45917.61521856481</v>
-      </c>
-      <c r="B30" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C30" s="6" t="s">
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" s="3">
+        <v>45917.6152185648</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="H30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8">
-        <v>45917.68223181713</v>
-      </c>
-      <c r="B31" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C31" s="10" t="s">
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="6">
+        <v>45917.6822318171</v>
+      </c>
+      <c r="B31" s="7">
+        <v>5</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="4">
-        <v>45917.71106947916</v>
-      </c>
-      <c r="B32" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C32" s="6" t="s">
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="3">
+        <v>45917.7110694792</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="H32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8">
-        <v>45917.72147398148</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C33" s="10" t="s">
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="6">
+        <v>45917.7214739815</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="4">
-        <v>45917.762106828704</v>
-      </c>
-      <c r="B34" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C34" s="6" t="s">
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="3">
+        <v>45917.7621068287</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="H34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8">
-        <v>45917.81198372685</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C35" s="10" t="s">
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" s="6">
+        <v>45917.8119837269</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="4">
-        <v>45917.83198299768</v>
-      </c>
-      <c r="B36" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C36" s="6" t="s">
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="3">
+        <v>45917.8319829977</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="7" t="s">
+      <c r="H36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8">
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="6">
         <v>45917.8320591088</v>
       </c>
-      <c r="B37" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="7">
+        <v>5</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="4">
-        <v>45917.84832119213</v>
-      </c>
-      <c r="B38" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C38" s="6" t="s">
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="3">
+        <v>45917.8483211921</v>
+      </c>
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="7" t="s">
+      <c r="H38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8">
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="6">
         <v>45917.8517871875</v>
       </c>
-      <c r="B39" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="7">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4">
-        <v>45917.85179597222</v>
-      </c>
-      <c r="B40" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C40" s="6" t="s">
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="3">
+        <v>45917.8517959722</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="7" t="s">
+      <c r="H40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="8">
-        <v>45917.87787834491</v>
-      </c>
-      <c r="B41" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C41" s="10" t="s">
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" s="6">
+        <v>45917.8778783449</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4">
-        <v>45917.92202131945</v>
-      </c>
-      <c r="B42" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C42" s="6" t="s">
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" s="3">
+        <v>45917.9220213194</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="8">
-        <v>45918.56855358796</v>
-      </c>
-      <c r="B43" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C43" s="10" t="s">
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" s="6">
+        <v>45918.568553588</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="D43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="8" t="s">
         <v>122</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="4">
-        <v>45918.59635678241</v>
-      </c>
-      <c r="B44" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C44" s="6" t="s">
+    <row r="44" customHeight="1" spans="1:9">
+      <c r="A44" s="3">
+        <v>45918.5963567824</v>
+      </c>
+      <c r="B44" s="4">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="7" t="s">
+      <c r="H44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="8">
-        <v>45918.626251215275</v>
-      </c>
-      <c r="B45" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="C45" s="10" t="s">
+    <row r="45" customHeight="1" spans="1:9">
+      <c r="A45" s="6">
+        <v>45918.6262512153</v>
+      </c>
+      <c r="B45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="4">
-        <v>45918.65390148148</v>
-      </c>
-      <c r="B46" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C46" s="6" t="s">
+    <row r="46" customHeight="1" spans="1:9">
+      <c r="A46" s="3">
+        <v>45918.6539014815</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="8">
-        <v>45918.82111469907</v>
-      </c>
-      <c r="B47" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C47" s="10" t="s">
+    <row r="47" customHeight="1" spans="1:9">
+      <c r="A47" s="6">
+        <v>45918.8211146991</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="4">
-        <v>45918.859142789355</v>
-      </c>
-      <c r="B48" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C48" s="6" t="s">
+    <row r="48" customHeight="1" spans="1:9">
+      <c r="A48" s="3">
+        <v>45918.8591427894</v>
+      </c>
+      <c r="B48" s="4">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="7" t="s">
+      <c r="H48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="8">
-        <v>45918.923955081016</v>
-      </c>
-      <c r="B49" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C49" s="10" t="s">
+    <row r="49" customHeight="1" spans="1:9">
+      <c r="A49" s="6">
+        <v>45918.923955081</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="4">
-        <v>45918.944227685184</v>
-      </c>
-      <c r="B50" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C50" s="6" t="s">
+    <row r="50" customHeight="1" spans="1:9">
+      <c r="A50" s="3">
+        <v>45918.9442276852</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="7" t="s">
+      <c r="H50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="8">
-        <v>45918.955269224534</v>
-      </c>
-      <c r="B51" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C51" s="10" t="s">
+    <row r="51" customHeight="1" spans="1:9">
+      <c r="A51" s="6">
+        <v>45918.9552692245</v>
+      </c>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="4">
-        <v>45918.95527416667</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C52" s="6" t="s">
+    <row r="52" customHeight="1" spans="1:9">
+      <c r="A52" s="3">
+        <v>45918.9552741667</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="7" t="s">
+      <c r="H52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="8">
-        <v>45919.54874465278</v>
-      </c>
-      <c r="B53" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C53" s="10" t="s">
+    <row r="53" customHeight="1" spans="1:9">
+      <c r="A53" s="6">
+        <v>45919.5487446528</v>
+      </c>
+      <c r="B53" s="7">
+        <v>4</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="4">
-        <v>45919.65841070602</v>
-      </c>
-      <c r="B54" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C54" s="6" t="s">
+    <row r="54" customHeight="1" spans="1:9">
+      <c r="A54" s="3">
+        <v>45919.658410706</v>
+      </c>
+      <c r="B54" s="4">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="7" t="s">
+      <c r="H54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="8">
-        <v>45919.71431674769</v>
-      </c>
-      <c r="B55" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="C55" s="10" t="s">
+    <row r="55" customHeight="1" spans="1:9">
+      <c r="A55" s="6">
+        <v>45919.7143167477</v>
+      </c>
+      <c r="B55" s="7">
+        <v>3</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="4">
-        <v>45919.774327418985</v>
-      </c>
-      <c r="B56" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C56" s="6" t="s">
+    <row r="56" customHeight="1" spans="1:9">
+      <c r="A56" s="3">
+        <v>45919.774327419</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="D56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="H56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="8">
+    <row r="57" customHeight="1" spans="1:9">
+      <c r="A57" s="6">
         <v>45919.8012158912</v>
       </c>
-      <c r="B57" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="7">
+        <v>4</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="D57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="4">
-        <v>45919.81657981481</v>
-      </c>
-      <c r="B58" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C58" s="6" t="s">
+    <row r="58" customHeight="1" spans="1:9">
+      <c r="A58" s="3">
+        <v>45919.8165798148</v>
+      </c>
+      <c r="B58" s="4">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="6" t="s">
+      <c r="D58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="7" t="s">
+      <c r="H58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="8">
+    <row r="59" customHeight="1" spans="1:9">
+      <c r="A59" s="6">
         <v>45919.8239303125</v>
       </c>
-      <c r="B59" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="7">
+        <v>5</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="4">
-        <v>45919.84858207176</v>
-      </c>
-      <c r="B60" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C60" s="6" t="s">
+    <row r="60" customHeight="1" spans="1:9">
+      <c r="A60" s="3">
+        <v>45919.8485820718</v>
+      </c>
+      <c r="B60" s="4">
+        <v>5</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="D60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="7" t="s">
+      <c r="H60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="8">
+    <row r="61" customHeight="1" spans="1:9">
+      <c r="A61" s="6">
         <v>45919.8522750463</v>
       </c>
-      <c r="B61" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="7">
+        <v>5</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="10" t="s">
+      <c r="D61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="4">
-        <v>45919.86527991898</v>
-      </c>
-      <c r="B62" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C62" s="6" t="s">
+    <row r="62" customHeight="1" spans="1:9">
+      <c r="A62" s="3">
+        <v>45919.865279919</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="7" t="s">
+      <c r="H62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="8">
-        <v>45919.86795344907</v>
-      </c>
-      <c r="B63" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C63" s="10" t="s">
+    <row r="63" customHeight="1" spans="1:9">
+      <c r="A63" s="6">
+        <v>45919.8679534491</v>
+      </c>
+      <c r="B63" s="7">
+        <v>4</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="10" t="s">
+      <c r="D63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="4">
-        <v>45919.872981319444</v>
-      </c>
-      <c r="B64" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C64" s="6" t="s">
+    <row r="64" customHeight="1" spans="1:9">
+      <c r="A64" s="3">
+        <v>45919.8729813194</v>
+      </c>
+      <c r="B64" s="4">
+        <v>5</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6" t="s">
+      <c r="D64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="7" t="s">
+      <c r="H64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="8">
-        <v>45919.893371805556</v>
-      </c>
-      <c r="B65" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C65" s="10" t="s">
+    <row r="65" customHeight="1" spans="1:9">
+      <c r="A65" s="6">
+        <v>45919.8933718056</v>
+      </c>
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="4">
-        <v>45919.93439040509</v>
-      </c>
-      <c r="B66" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C66" s="6" t="s">
+    <row r="66" customHeight="1" spans="1:9">
+      <c r="A66" s="3">
+        <v>45919.9343904051</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="6" t="s">
+      <c r="D66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="7" t="s">
+      <c r="H66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="8">
-        <v>45919.96697414352</v>
-      </c>
-      <c r="B67" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C67" s="10" t="s">
+    <row r="67" customHeight="1" spans="1:9">
+      <c r="A67" s="6">
+        <v>45919.9669741435</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="4">
-        <v>45919.99585743056</v>
-      </c>
-      <c r="B68" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C68" s="6" t="s">
+    <row r="68" customHeight="1" spans="1:9">
+      <c r="A68" s="3">
+        <v>45919.9958574306</v>
+      </c>
+      <c r="B68" s="4">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="D68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="7" t="s">
+      <c r="H68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="8">
-        <v>45920.14232238426</v>
-      </c>
-      <c r="B69" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C69" s="10" t="s">
+    <row r="69" customHeight="1" spans="1:9">
+      <c r="A69" s="6">
+        <v>45920.1423223843</v>
+      </c>
+      <c r="B69" s="7">
+        <v>5</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="D69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="4">
-        <v>45920.30802459491</v>
-      </c>
-      <c r="B70" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C70" s="6" t="s">
+    <row r="70" customHeight="1" spans="1:9">
+      <c r="A70" s="3">
+        <v>45920.3080245949</v>
+      </c>
+      <c r="B70" s="4">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="D70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="7" t="s">
+      <c r="H70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="8">
+    <row r="71" customHeight="1" spans="1:9">
+      <c r="A71" s="6">
         <v>45920.4877481713</v>
       </c>
-      <c r="B71" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="7">
+        <v>5</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="4">
-        <v>45920.59018126158</v>
-      </c>
-      <c r="B72" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C72" s="6" t="s">
+    <row r="72" customHeight="1" spans="1:9">
+      <c r="A72" s="3">
+        <v>45920.5901812616</v>
+      </c>
+      <c r="B72" s="4">
+        <v>5</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="6" t="s">
+      <c r="D72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="7" t="s">
+      <c r="H72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="8">
+    <row r="73" customHeight="1" spans="1:9">
+      <c r="A73" s="6">
         <v>45920.6109072338</v>
       </c>
-      <c r="B73" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="7">
+        <v>4</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H73" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="4">
+    <row r="74" customHeight="1" spans="1:9">
+      <c r="A74" s="3">
         <v>45920.617969375</v>
       </c>
-      <c r="B74" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="4">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="H74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="8">
+    <row r="75" customHeight="1" spans="1:9">
+      <c r="A75" s="6">
         <v>45920.618004375</v>
       </c>
-      <c r="B75" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="7">
+        <v>3</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="4">
-        <v>45920.61953226852</v>
-      </c>
-      <c r="B76" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C76" s="6" t="s">
+    <row r="76" customHeight="1" spans="1:9">
+      <c r="A76" s="3">
+        <v>45920.6195322685</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="8">
-        <v>45920.65574915509</v>
-      </c>
-      <c r="B77" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C77" s="10" t="s">
+    <row r="77" customHeight="1" spans="1:9">
+      <c r="A77" s="6">
+        <v>45920.6557491551</v>
+      </c>
+      <c r="B77" s="7">
+        <v>4</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="D77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="H77" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="4">
-        <v>45920.68002511574</v>
-      </c>
-      <c r="B78" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C78" s="6" t="s">
+    <row r="78" customHeight="1" spans="1:9">
+      <c r="A78" s="3">
+        <v>45920.6800251157</v>
+      </c>
+      <c r="B78" s="4">
+        <v>5</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="D78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="7" t="s">
+      <c r="H78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="8">
-        <v>45920.68018326389</v>
-      </c>
-      <c r="B79" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C79" s="10" t="s">
+    <row r="79" customHeight="1" spans="1:9">
+      <c r="A79" s="6">
+        <v>45920.6801832639</v>
+      </c>
+      <c r="B79" s="7">
+        <v>4</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="10" t="s">
+      <c r="D79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="4">
-        <v>45920.71929113426</v>
-      </c>
-      <c r="B80" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C80" s="6" t="s">
+    <row r="80" customHeight="1" spans="1:9">
+      <c r="A80" s="3">
+        <v>45920.7192911343</v>
+      </c>
+      <c r="B80" s="4">
+        <v>4</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="D80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="H80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="7" t="s">
+      <c r="H80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="8">
-        <v>45920.755878819444</v>
-      </c>
-      <c r="B81" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C81" s="10" t="s">
+    <row r="81" customHeight="1" spans="1:9">
+      <c r="A81" s="6">
+        <v>45920.7558788194</v>
+      </c>
+      <c r="B81" s="7">
+        <v>4</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="10" t="s">
+      <c r="D81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="4">
-        <v>45920.75924164352</v>
-      </c>
-      <c r="B82" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C82" s="6" t="s">
+    <row r="82" customHeight="1" spans="1:9">
+      <c r="A82" s="3">
+        <v>45920.7592416435</v>
+      </c>
+      <c r="B82" s="4">
+        <v>4</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="6" t="s">
+      <c r="D82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="7" t="s">
+      <c r="H82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="8">
-        <v>45920.767109479166</v>
-      </c>
-      <c r="B83" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C83" s="10" t="s">
+    <row r="83" customHeight="1" spans="1:9">
+      <c r="A83" s="6">
+        <v>45920.7671094792</v>
+      </c>
+      <c r="B83" s="7">
+        <v>5</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="4">
-        <v>45920.77578252315</v>
-      </c>
-      <c r="B84" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C84" s="6" t="s">
+    <row r="84" customHeight="1" spans="1:9">
+      <c r="A84" s="3">
+        <v>45920.7757825232</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="7" t="s">
+      <c r="H84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="8">
-        <v>45920.77834391204</v>
-      </c>
-      <c r="B85" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C85" s="10" t="s">
+    <row r="85" customHeight="1" spans="1:9">
+      <c r="A85" s="6">
+        <v>45920.778343912</v>
+      </c>
+      <c r="B85" s="7">
+        <v>1</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H85" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="4">
-        <v>45920.81126378472</v>
-      </c>
-      <c r="B86" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C86" s="6" t="s">
+    <row r="86" customHeight="1" spans="1:9">
+      <c r="A86" s="3">
+        <v>45920.8112637847</v>
+      </c>
+      <c r="B86" s="4">
+        <v>5</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="6" t="s">
+      <c r="D86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H86" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="7" t="s">
+      <c r="H86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="8">
-        <v>45920.83323402778</v>
-      </c>
-      <c r="B87" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C87" s="10" t="s">
+    <row r="87" customHeight="1" spans="1:9">
+      <c r="A87" s="6">
+        <v>45920.8332340278</v>
+      </c>
+      <c r="B87" s="7">
+        <v>4</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H87" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I87" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="4">
-        <v>45920.843600162036</v>
-      </c>
-      <c r="B88" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C88" s="6" t="s">
+    <row r="88" customHeight="1" spans="1:9">
+      <c r="A88" s="3">
+        <v>45920.843600162</v>
+      </c>
+      <c r="B88" s="4">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="6" t="s">
+      <c r="D88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" s="7" t="s">
+      <c r="H88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="8">
-        <v>45920.84942175926</v>
-      </c>
-      <c r="B89" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C89" s="10" t="s">
+    <row r="89" customHeight="1" spans="1:9">
+      <c r="A89" s="6">
+        <v>45920.8494217593</v>
+      </c>
+      <c r="B89" s="7">
+        <v>4</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="10" t="s">
+      <c r="D89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="4">
+    <row r="90" customHeight="1" spans="1:9">
+      <c r="A90" s="3">
         <v>45920.860124375</v>
       </c>
-      <c r="B90" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C90" s="6" t="s">
+      <c r="B90" s="4">
+        <v>3</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="6" t="s">
+      <c r="D90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="7" t="s">
+      <c r="H90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="8">
-        <v>45920.86421704861</v>
-      </c>
-      <c r="B91" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C91" s="10" t="s">
+    <row r="91" customHeight="1" spans="1:9">
+      <c r="A91" s="6">
+        <v>45920.8642170486</v>
+      </c>
+      <c r="B91" s="7">
+        <v>5</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="10" t="s">
+      <c r="D91" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="4">
-        <v>45920.865672858796</v>
-      </c>
-      <c r="B92" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C92" s="6" t="s">
+    <row r="92" customHeight="1" spans="1:9">
+      <c r="A92" s="3">
+        <v>45920.8656728588</v>
+      </c>
+      <c r="B92" s="4">
+        <v>3</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="6" t="s">
+      <c r="D92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="8">
-        <v>45920.86938452546</v>
-      </c>
-      <c r="B93" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C93" s="10" t="s">
+    <row r="93" customHeight="1" spans="1:9">
+      <c r="A93" s="6">
+        <v>45920.8693845255</v>
+      </c>
+      <c r="B93" s="7">
+        <v>5</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="10" t="s">
+      <c r="D93" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="H93" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="4">
-        <v>45920.871373263886</v>
-      </c>
-      <c r="B94" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C94" s="6" t="s">
+    <row r="94" customHeight="1" spans="1:9">
+      <c r="A94" s="3">
+        <v>45920.8713732639</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" s="7" t="s">
+      <c r="H94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="8">
-        <v>45920.87824373842</v>
-      </c>
-      <c r="B95" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C95" s="10" t="s">
+    <row r="95" customHeight="1" spans="1:9">
+      <c r="A95" s="6">
+        <v>45920.8782437384</v>
+      </c>
+      <c r="B95" s="7">
+        <v>2</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="4">
-        <v>45920.887506122686</v>
-      </c>
-      <c r="B96" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C96" s="6" t="s">
+    <row r="96" customHeight="1" spans="1:9">
+      <c r="A96" s="3">
+        <v>45920.8875061227</v>
+      </c>
+      <c r="B96" s="4">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" s="7" t="s">
+      <c r="H96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="8">
+    <row r="97" customHeight="1" spans="1:9">
+      <c r="A97" s="6">
         <v>45920.8892109838</v>
       </c>
-      <c r="B97" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C97" s="10" t="s">
+      <c r="B97" s="7">
+        <v>4</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="4">
-        <v>45920.899062881945</v>
-      </c>
-      <c r="B98" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C98" s="6" t="s">
+    <row r="98" customHeight="1" spans="1:9">
+      <c r="A98" s="3">
+        <v>45920.8990628819</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="6" t="s">
+      <c r="D98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="7" t="s">
+      <c r="H98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="8">
-        <v>45920.90011135417</v>
-      </c>
-      <c r="B99" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="10" t="s">
+    <row r="99" customHeight="1" spans="1:9">
+      <c r="A99" s="6">
+        <v>45920.9001113542</v>
+      </c>
+      <c r="B99" s="7">
+        <v>1</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="H99" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="4">
-        <v>45920.90822715277</v>
-      </c>
-      <c r="B100" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C100" s="6" t="s">
+    <row r="100" customHeight="1" spans="1:9">
+      <c r="A100" s="3">
+        <v>45920.9082271528</v>
+      </c>
+      <c r="B100" s="4">
+        <v>3</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G100" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I100" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="8">
-        <v>45920.908809560184</v>
-      </c>
-      <c r="B101" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="C101" s="10" t="s">
+    <row r="101" customHeight="1" spans="1:9">
+      <c r="A101" s="6">
+        <v>45920.9088095602</v>
+      </c>
+      <c r="B101" s="7">
+        <v>3</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H101" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="4">
-        <v>45920.91522658565</v>
-      </c>
-      <c r="B102" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C102" s="6" t="s">
+    <row r="102" customHeight="1" spans="1:9">
+      <c r="A102" s="3">
+        <v>45920.9152265856</v>
+      </c>
+      <c r="B102" s="4">
+        <v>5</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="6" t="s">
+      <c r="D102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G102" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H102" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="7" t="s">
+      <c r="H102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="8">
-        <v>45920.92230327547</v>
-      </c>
-      <c r="B103" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C103" s="10" t="s">
+    <row r="103" customHeight="1" spans="1:9">
+      <c r="A103" s="6">
+        <v>45920.9223032755</v>
+      </c>
+      <c r="B103" s="7">
+        <v>5</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="10" t="s">
+      <c r="D103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="H103" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="4">
-        <v>45920.92705128472</v>
-      </c>
-      <c r="B104" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C104" s="6" t="s">
+    <row r="104" customHeight="1" spans="1:9">
+      <c r="A104" s="3">
+        <v>45920.9270512847</v>
+      </c>
+      <c r="B104" s="4">
+        <v>2</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G104" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H104" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="I104" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="8">
-        <v>45920.92881644676</v>
-      </c>
-      <c r="B105" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C105" s="10" t="s">
+    <row r="105" customHeight="1" spans="1:9">
+      <c r="A105" s="6">
+        <v>45920.9288164468</v>
+      </c>
+      <c r="B105" s="7">
+        <v>4</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="10" t="s">
+      <c r="D105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F105" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H105" s="10" t="s">
+      <c r="H105" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="4">
-        <v>45920.92968863426</v>
-      </c>
-      <c r="B106" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C106" s="6" t="s">
+    <row r="106" customHeight="1" spans="1:9">
+      <c r="A106" s="3">
+        <v>45920.9296886343</v>
+      </c>
+      <c r="B106" s="4">
+        <v>5</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="6" t="s">
+      <c r="D106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="G106" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H106" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="7" t="s">
+      <c r="H106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="8">
-        <v>45920.92987173611</v>
-      </c>
-      <c r="B107" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C107" s="10" t="s">
+    <row r="107" customHeight="1" spans="1:9">
+      <c r="A107" s="6">
+        <v>45920.9298717361</v>
+      </c>
+      <c r="B107" s="7">
+        <v>5</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="10" t="s">
+      <c r="D107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F107" s="10" t="s">
+      <c r="F107" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="G107" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="10" t="s">
+      <c r="H107" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I107" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="4">
-        <v>45920.93656498843</v>
-      </c>
-      <c r="B108" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C108" s="6" t="s">
+    <row r="108" customHeight="1" spans="1:9">
+      <c r="A108" s="3">
+        <v>45920.9365649884</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G108" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H108" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" s="7" t="s">
+      <c r="H108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="8">
-        <v>45920.93788216435</v>
-      </c>
-      <c r="B109" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C109" s="10" t="s">
+    <row r="109" customHeight="1" spans="1:9">
+      <c r="A109" s="6">
+        <v>45920.9378821643</v>
+      </c>
+      <c r="B109" s="7">
+        <v>5</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="10" t="s">
+      <c r="D109" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F109" s="10" t="s">
+      <c r="F109" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H109" s="10" t="s">
+      <c r="H109" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I109" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="4">
-        <v>45920.93813268519</v>
-      </c>
-      <c r="B110" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C110" s="6" t="s">
+    <row r="110" customHeight="1" spans="1:9">
+      <c r="A110" s="3">
+        <v>45920.9381326852</v>
+      </c>
+      <c r="B110" s="4">
+        <v>4</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="6" t="s">
+      <c r="D110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G110" s="6" t="s">
+      <c r="G110" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H110" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" s="7" t="s">
+      <c r="H110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="8">
-        <v>45920.938714675925</v>
-      </c>
-      <c r="B111" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C111" s="10" t="s">
+    <row r="111" customHeight="1" spans="1:9">
+      <c r="A111" s="6">
+        <v>45920.9387146759</v>
+      </c>
+      <c r="B111" s="7">
+        <v>2</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H111" s="10" t="s">
+      <c r="H111" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I111" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="4">
-        <v>45920.93997128472</v>
-      </c>
-      <c r="B112" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C112" s="6" t="s">
+    <row r="112" customHeight="1" spans="1:9">
+      <c r="A112" s="3">
+        <v>45920.9399712847</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G112" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H112" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" s="7" t="s">
+      <c r="H112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="8">
-        <v>45920.942164224536</v>
-      </c>
-      <c r="B113" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="C113" s="10" t="s">
+    <row r="113" customHeight="1" spans="1:9">
+      <c r="A113" s="6">
+        <v>45920.9421642245</v>
+      </c>
+      <c r="B113" s="7">
+        <v>4</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D113" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="10" t="s">
+      <c r="D113" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F113" s="10" t="s">
+      <c r="F113" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="G113" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H113" s="10" t="s">
+      <c r="H113" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I113" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="4">
-        <v>45920.951568460645</v>
-      </c>
-      <c r="B114" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C114" s="6" t="s">
+    <row r="114" customHeight="1" spans="1:9">
+      <c r="A114" s="3">
+        <v>45920.9515684606</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G114" s="6" t="s">
+      <c r="G114" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H114" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="7" t="s">
+      <c r="H114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="8">
-        <v>45920.95208840277</v>
-      </c>
-      <c r="B115" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C115" s="10" t="s">
+    <row r="115" customHeight="1" spans="1:9">
+      <c r="A115" s="6">
+        <v>45920.9520884028</v>
+      </c>
+      <c r="B115" s="7">
+        <v>1</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E115" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F115" s="10" t="s">
+      <c r="F115" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G115" s="10" t="s">
+      <c r="G115" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="10" t="s">
+      <c r="H115" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="4">
-        <v>45920.95606222222</v>
-      </c>
-      <c r="B116" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C116" s="6" t="s">
+    <row r="116" customHeight="1" spans="1:9">
+      <c r="A116" s="3">
+        <v>45920.9560622222</v>
+      </c>
+      <c r="B116" s="4">
+        <v>3</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="6" t="s">
+      <c r="D116" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G116" s="6" t="s">
+      <c r="G116" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H116" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" s="7" t="s">
+      <c r="H116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="8">
-        <v>45920.963443796296</v>
-      </c>
-      <c r="B117" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C117" s="10" t="s">
+    <row r="117" customHeight="1" spans="1:9">
+      <c r="A117" s="6">
+        <v>45920.9634437963</v>
+      </c>
+      <c r="B117" s="7">
+        <v>1</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F117" s="10" t="s">
+      <c r="F117" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G117" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H117" s="10" t="s">
+      <c r="H117" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="4">
-        <v>45920.963918611116</v>
-      </c>
-      <c r="B118" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C118" s="6" t="s">
+    <row r="118" customHeight="1" spans="1:9">
+      <c r="A118" s="3">
+        <v>45920.9639186111</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G118" s="6" t="s">
+      <c r="G118" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H118" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" s="7" t="s">
+      <c r="H118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="8">
+    <row r="119" customHeight="1" spans="1:9">
+      <c r="A119" s="6">
         <v>45920.96687125</v>
       </c>
-      <c r="B119" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="C119" s="10" t="s">
+      <c r="B119" s="7">
+        <v>3</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D119" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="10" t="s">
+      <c r="D119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G119" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="H119" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="4">
-        <v>45920.97382284723</v>
-      </c>
-      <c r="B120" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C120" s="6" t="s">
+    <row r="120" customHeight="1" spans="1:9">
+      <c r="A120" s="3">
+        <v>45920.9738228472</v>
+      </c>
+      <c r="B120" s="4">
+        <v>5</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="6" t="s">
+      <c r="D120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="G120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H120" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I120" s="7" t="s">
+      <c r="H120" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="8">
-        <v>45920.979298391205</v>
-      </c>
-      <c r="B121" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="C121" s="10" t="s">
+    <row r="121" customHeight="1" spans="1:9">
+      <c r="A121" s="6">
+        <v>45920.9792983912</v>
+      </c>
+      <c r="B121" s="7">
+        <v>3</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E121" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F121" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H121" s="10" t="s">
+      <c r="H121" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I121" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="4">
-        <v>45920.98810549769</v>
-      </c>
-      <c r="B122" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C122" s="6" t="s">
+    <row r="122" customHeight="1" spans="1:9">
+      <c r="A122" s="3">
+        <v>45920.9881054977</v>
+      </c>
+      <c r="B122" s="4">
+        <v>4</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="6" t="s">
+      <c r="D122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F122" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G122" s="6" t="s">
+      <c r="G122" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H122" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I122" s="7" t="s">
+      <c r="H122" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="8">
-        <v>45920.99023206018</v>
-      </c>
-      <c r="B123" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C123" s="10" t="s">
+    <row r="123" customHeight="1" spans="1:9">
+      <c r="A123" s="6">
+        <v>45920.9902320602</v>
+      </c>
+      <c r="B123" s="7">
+        <v>2</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F123" s="10" t="s">
+      <c r="F123" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G123" s="10" t="s">
+      <c r="G123" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="10" t="s">
+      <c r="H123" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I123" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="4">
-        <v>45920.99292871528</v>
-      </c>
-      <c r="B124" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C124" s="6" t="s">
+    <row r="124" customHeight="1" spans="1:9">
+      <c r="A124" s="3">
+        <v>45920.9929287153</v>
+      </c>
+      <c r="B124" s="4">
+        <v>4</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="6" t="s">
+      <c r="D124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="G124" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H124" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" s="7" t="s">
+      <c r="H124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="8">
-        <v>45920.99645511574</v>
-      </c>
-      <c r="B125" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C125" s="10" t="s">
+    <row r="125" customHeight="1" spans="1:9">
+      <c r="A125" s="6">
+        <v>45920.9964551157</v>
+      </c>
+      <c r="B125" s="7">
+        <v>2</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E125" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F125" s="10" t="s">
+      <c r="F125" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G125" s="10" t="s">
+      <c r="G125" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H125" s="10" t="s">
+      <c r="H125" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I125" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customHeight="1" spans="1:9">
       <c r="A126" s="12">
-        <v>45921.58253177084</v>
+        <v>45921.5825317708</v>
       </c>
       <c r="B126" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>269</v>
@@ -5013,14 +5888,55 @@
       <c r="H126" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I126" s="15" t="s">
+      <c r="I126" s="17" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="127" customHeight="1" spans="2:3">
+      <c r="B127" s="13">
+        <v>1</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="2:3">
+      <c r="B128" s="13">
+        <v>1</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="2:3">
+      <c r="B129" s="13">
+        <v>1</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="2:3">
+      <c r="B130" s="13">
+        <v>1</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="2:3">
+      <c r="B131" s="13">
+        <v>2</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>